--- a/docs/StructureDefinition-QCGender.xlsx
+++ b/docs/StructureDefinition-QCGender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
